--- a/tables/CNV_copynumber_cnvkit.xlsx
+++ b/tables/CNV_copynumber_cnvkit.xlsx
@@ -924,10 +924,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>2</v>
       </c>
       <c r="AW2" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY2" s="20" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>2</v>
       </c>
       <c r="O3" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="20" t="n">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="AW3" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="20" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="20" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>2</v>
       </c>
       <c r="AW4" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="20" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="O5" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="20" t="n">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>2</v>
       </c>
       <c r="AW5" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="20" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="20" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>2</v>
       </c>
       <c r="AW6" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="20" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="20" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="AW7" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="20" t="n">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="20" t="n">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="AW8" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="20" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="20" t="n">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>2</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -2356,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="AW9" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="20" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="20" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="AW10" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="20" t="n">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="20" t="n">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="AW11" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="20" t="n">
         <v>0</v>
@@ -2832,10 +2832,10 @@
         <v>2</v>
       </c>
       <c r="O12" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="20" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>2</v>
       </c>
       <c r="AW12" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="20" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="20" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>2</v>
       </c>
       <c r="AW13" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="20" t="n">
         <v>0</v>
@@ -3220,10 +3220,10 @@
         <v>2</v>
       </c>
       <c r="O14" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="20" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>2</v>
       </c>
       <c r="AW14" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="20" t="n">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>2</v>
       </c>
       <c r="O15" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="20" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>2</v>
       </c>
       <c r="AW15" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="20" t="n">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="20" t="n">
-        <v>0</v>
+        <v>2.00040333901148</v>
       </c>
       <c r="P16" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="20" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.00040333901148</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>2</v>
       </c>
       <c r="AW16" s="20" t="n">
-        <v>0</v>
+        <v>2.00040333901148</v>
       </c>
       <c r="AX16" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="20" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="20" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -3887,10 +3887,10 @@
         <v>2</v>
       </c>
       <c r="AW17" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="20" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="20" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>2</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -4078,10 +4078,10 @@
         <v>2</v>
       </c>
       <c r="AW18" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="20" t="n">
         <v>0</v>
@@ -4167,10 +4167,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="20" t="n">
         <v>0</v>
@@ -4218,10 +4218,10 @@
         <v>2</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>2</v>
       </c>
       <c r="AW19" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="20" t="n">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="20" t="n">
         <v>0</v>
@@ -4409,10 +4409,10 @@
         <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -4460,10 +4460,10 @@
         <v>2</v>
       </c>
       <c r="AW20" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="20" t="n">
         <v>0</v>
@@ -4545,10 +4545,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="20" t="n">
         <v>0</v>
@@ -4596,10 +4596,10 @@
         <v>2</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -4647,10 +4647,10 @@
         <v>2</v>
       </c>
       <c r="AW21" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="20" t="n">
         <v>0</v>
@@ -4741,10 +4741,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="20" t="n">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="AW22" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="20" t="n">
         <v>0</v>
@@ -4932,10 +4932,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="20" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -5034,10 +5034,10 @@
         <v>2</v>
       </c>
       <c r="AW23" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="20" t="n">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>2</v>
       </c>
       <c r="O24" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="20" t="n">
         <v>0</v>
@@ -5174,10 +5174,10 @@
         <v>2</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -5225,10 +5225,10 @@
         <v>2</v>
       </c>
       <c r="AW24" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="20" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="20" t="n">
         <v>0</v>
@@ -5361,10 +5361,10 @@
         <v>2</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -5412,10 +5412,10 @@
         <v>2</v>
       </c>
       <c r="AW25" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="20" t="n">
         <v>0</v>
@@ -5495,10 +5495,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="20" t="n">
         <v>0</v>
@@ -5546,10 +5546,10 @@
         <v>2</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -5597,10 +5597,10 @@
         <v>2</v>
       </c>
       <c r="AW26" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY26" s="20" t="n">
         <v>0</v>
@@ -5682,10 +5682,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="20" t="n">
         <v>0</v>
@@ -5733,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -5784,10 +5784,10 @@
         <v>2</v>
       </c>
       <c r="AW27" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY27" s="20" t="n">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="20" t="n">
         <v>0</v>
@@ -5920,10 +5920,10 @@
         <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -5971,10 +5971,10 @@
         <v>2</v>
       </c>
       <c r="AW28" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX28" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY28" s="20" t="n">
         <v>0</v>
@@ -6056,10 +6056,10 @@
         <v>2</v>
       </c>
       <c r="O29" s="20" t="n">
-        <v>0</v>
+        <v>2.470312472064044</v>
       </c>
       <c r="P29" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="20" t="n">
         <v>0</v>
@@ -6107,10 +6107,10 @@
         <v>2</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2.470312472064044</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -6158,10 +6158,10 @@
         <v>2</v>
       </c>
       <c r="AW29" s="20" t="n">
-        <v>0</v>
+        <v>2.470312472064044</v>
       </c>
       <c r="AX29" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY29" s="20" t="n">
         <v>0</v>
@@ -6241,10 +6241,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="20" t="n">
         <v>0</v>
@@ -6292,10 +6292,10 @@
         <v>2</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -6343,10 +6343,10 @@
         <v>2</v>
       </c>
       <c r="AW30" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX30" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY30" s="20" t="n">
         <v>0</v>
@@ -6437,10 +6437,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="20" t="n">
         <v>0</v>
@@ -6488,10 +6488,10 @@
         <v>2</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -6539,10 +6539,10 @@
         <v>2</v>
       </c>
       <c r="AW31" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX31" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY31" s="20" t="n">
         <v>0</v>
@@ -6628,10 +6628,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="20" t="n">
         <v>0</v>
@@ -6679,10 +6679,10 @@
         <v>2</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         <v>2</v>
       </c>
       <c r="AW32" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX32" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY32" s="20" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>1</v>
       </c>
       <c r="O33" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="20" t="n">
         <v>0</v>
@@ -6866,10 +6866,10 @@
         <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -6917,10 +6917,10 @@
         <v>1</v>
       </c>
       <c r="AW33" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX33" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="20" t="n">
         <v>0</v>
@@ -7011,10 +7011,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="20" t="n">
         <v>0</v>
@@ -7062,10 +7062,10 @@
         <v>2</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -7113,10 +7113,10 @@
         <v>2</v>
       </c>
       <c r="AW34" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX34" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY34" s="20" t="n">
         <v>0</v>
@@ -7202,10 +7202,10 @@
         <v>2</v>
       </c>
       <c r="O35" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="20" t="n">
         <v>0</v>
@@ -7253,10 +7253,10 @@
         <v>2</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -7304,10 +7304,10 @@
         <v>2</v>
       </c>
       <c r="AW35" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX35" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY35" s="20" t="n">
         <v>0</v>
@@ -7389,10 +7389,10 @@
         <v>2</v>
       </c>
       <c r="O36" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="20" t="n">
         <v>0</v>
@@ -7440,10 +7440,10 @@
         <v>2</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="AW36" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX36" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY36" s="20" t="n">
         <v>0</v>
@@ -7581,10 +7581,10 @@
         <v>2</v>
       </c>
       <c r="O37" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="20" t="n">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>2</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -7683,10 +7683,10 @@
         <v>2</v>
       </c>
       <c r="AW37" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX37" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY37" s="20" t="n">
         <v>0</v>
@@ -7768,10 +7768,10 @@
         <v>2</v>
       </c>
       <c r="O38" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P38" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="20" t="n">
         <v>0</v>
@@ -7819,10 +7819,10 @@
         <v>2</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
@@ -7870,10 +7870,10 @@
         <v>2</v>
       </c>
       <c r="AW38" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX38" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY38" s="20" t="n">
         <v>0</v>
@@ -7955,10 +7955,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="20" t="n">
         <v>0</v>
@@ -8006,10 +8006,10 @@
         <v>2</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>2</v>
       </c>
       <c r="AW39" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX39" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY39" s="20" t="n">
         <v>0</v>
@@ -8142,10 +8142,10 @@
         <v>2</v>
       </c>
       <c r="O40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="20" t="n">
         <v>0</v>
@@ -8193,10 +8193,10 @@
         <v>2</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
@@ -8244,10 +8244,10 @@
         <v>2</v>
       </c>
       <c r="AW40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY40" s="20" t="n">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="20" t="n">
         <v>0</v>
@@ -8384,10 +8384,10 @@
         <v>2</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -8435,10 +8435,10 @@
         <v>2</v>
       </c>
       <c r="AW41" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX41" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY41" s="20" t="n">
         <v>0</v>
@@ -8525,10 +8525,10 @@
         <v>2</v>
       </c>
       <c r="O42" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="20" t="n">
         <v>0</v>
@@ -8576,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH42" t="n">
         <v>0</v>
@@ -8627,10 +8627,10 @@
         <v>2</v>
       </c>
       <c r="AW42" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX42" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY42" s="20" t="n">
         <v>0</v>
@@ -8716,10 +8716,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="20" t="n">
         <v>0</v>
@@ -8767,10 +8767,10 @@
         <v>2</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -8818,10 +8818,10 @@
         <v>2</v>
       </c>
       <c r="AW43" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX43" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY43" s="20" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="20" t="n">
         <v>0</v>
@@ -8958,10 +8958,10 @@
         <v>2</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>2</v>
       </c>
       <c r="AW44" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX44" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY44" s="20" t="n">
         <v>0</v>
@@ -9098,10 +9098,10 @@
         <v>2</v>
       </c>
       <c r="O45" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="20" t="n">
         <v>0</v>
@@ -9149,10 +9149,10 @@
         <v>2</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
@@ -9200,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="AW45" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX45" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY45" s="20" t="n">
         <v>0</v>
@@ -9289,10 +9289,10 @@
         <v>2</v>
       </c>
       <c r="O46" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="20" t="n">
         <v>0</v>
@@ -9340,10 +9340,10 @@
         <v>2</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -9391,10 +9391,10 @@
         <v>2</v>
       </c>
       <c r="AW46" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX46" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY46" s="20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>2</v>
       </c>
       <c r="O47" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="20" t="n">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>2</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -9578,10 +9578,10 @@
         <v>2</v>
       </c>
       <c r="AW47" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX47" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY47" s="20" t="n">
         <v>0</v>
@@ -9667,10 +9667,10 @@
         <v>2</v>
       </c>
       <c r="O48" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="20" t="n">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>2</v>
       </c>
       <c r="AF48" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG48" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH48" s="20" t="n">
         <v>0</v>
@@ -9769,10 +9769,10 @@
         <v>2</v>
       </c>
       <c r="AW48" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX48" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY48" s="20" t="n">
         <v>0</v>
@@ -9864,10 +9864,10 @@
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="20" t="n">
         <v>0</v>
@@ -9915,10 +9915,10 @@
         <v>1</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>1</v>
       </c>
       <c r="AW49" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX49" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY49" s="20" t="n">
         <v>0</v>
@@ -10060,10 +10060,10 @@
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>2</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -10162,10 +10162,10 @@
         <v>2</v>
       </c>
       <c r="AW50" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX50" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY50" s="20" t="n">
         <v>0</v>
@@ -10256,10 +10256,10 @@
         <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -10307,10 +10307,10 @@
         <v>2</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>2</v>
       </c>
       <c r="AW51" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX51" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY51" s="20" t="n">
         <v>0</v>
@@ -10452,10 +10452,10 @@
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -10503,10 +10503,10 @@
         <v>2</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
@@ -10554,10 +10554,10 @@
         <v>2</v>
       </c>
       <c r="AW52" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX52" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY52" s="20" t="n">
         <v>0</v>
@@ -10648,10 +10648,10 @@
         <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -10699,10 +10699,10 @@
         <v>2</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
@@ -10750,10 +10750,10 @@
         <v>2</v>
       </c>
       <c r="AW53" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX53" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY53" s="20" t="n">
         <v>0</v>
@@ -10844,10 +10844,10 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -10895,10 +10895,10 @@
         <v>2</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH54" t="n">
         <v>0</v>
@@ -10946,10 +10946,10 @@
         <v>2</v>
       </c>
       <c r="AW54" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX54" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY54" s="20" t="n">
         <v>0</v>
@@ -11040,10 +11040,10 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -11091,10 +11091,10 @@
         <v>1</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>1</v>
       </c>
       <c r="AW55" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX55" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY55" s="20" t="n">
         <v>0</v>
@@ -11236,10 +11236,10 @@
         <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -11287,10 +11287,10 @@
         <v>2</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH56" t="n">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>2</v>
       </c>
       <c r="AW56" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX56" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY56" s="20" t="n">
         <v>0</v>
@@ -11432,10 +11432,10 @@
         <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>2.514532311485328</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -11483,10 +11483,10 @@
         <v>2</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>2.514532311485328</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
@@ -11534,10 +11534,10 @@
         <v>2</v>
       </c>
       <c r="AW57" s="20" t="n">
-        <v>0</v>
+        <v>2.514532311485328</v>
       </c>
       <c r="AX57" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY57" s="20" t="n">
         <v>0</v>
@@ -11623,10 +11623,10 @@
         <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -11674,10 +11674,10 @@
         <v>2</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH58" t="n">
         <v>0</v>
@@ -11725,10 +11725,10 @@
         <v>2</v>
       </c>
       <c r="AW58" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX58" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY58" s="20" t="n">
         <v>0</v>
@@ -11819,10 +11819,10 @@
         <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -11870,10 +11870,10 @@
         <v>2</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
@@ -11921,10 +11921,10 @@
         <v>2</v>
       </c>
       <c r="AW59" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX59" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY59" s="20" t="n">
         <v>0</v>
@@ -12015,10 +12015,10 @@
         <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -12066,10 +12066,10 @@
         <v>2</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH60" t="n">
         <v>0</v>
@@ -12117,10 +12117,10 @@
         <v>2</v>
       </c>
       <c r="AW60" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX60" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY60" s="20" t="n">
         <v>0</v>
@@ -12211,10 +12211,10 @@
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         <v>2</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH61" t="n">
         <v>0</v>
@@ -12313,10 +12313,10 @@
         <v>2</v>
       </c>
       <c r="AW61" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX61" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY61" s="20" t="n">
         <v>0</v>
@@ -12407,10 +12407,10 @@
         <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -12458,10 +12458,10 @@
         <v>2</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH62" t="n">
         <v>0</v>
@@ -12509,10 +12509,10 @@
         <v>2</v>
       </c>
       <c r="AW62" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX62" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY62" s="20" t="n">
         <v>0</v>
@@ -12608,10 +12608,10 @@
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -12659,10 +12659,10 @@
         <v>1</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH63" t="n">
         <v>0</v>
@@ -12710,10 +12710,10 @@
         <v>1</v>
       </c>
       <c r="AW63" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX63" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY63" s="20" t="n">
         <v>0</v>
@@ -12804,10 +12804,10 @@
         <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1.536832597814396</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -12855,10 +12855,10 @@
         <v>2</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>1.536832597814396</v>
       </c>
       <c r="AH64" t="n">
         <v>0</v>
@@ -12906,10 +12906,10 @@
         <v>2</v>
       </c>
       <c r="AW64" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX64" s="20" t="n">
-        <v>0</v>
+        <v>1.536832597814396</v>
       </c>
       <c r="AY64" s="20" t="n">
         <v>0</v>
@@ -13000,10 +13000,10 @@
         <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -13051,10 +13051,10 @@
         <v>2</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH65" t="n">
         <v>0</v>
@@ -13102,10 +13102,10 @@
         <v>2</v>
       </c>
       <c r="AW65" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX65" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY65" s="20" t="n">
         <v>0</v>
@@ -13196,10 +13196,10 @@
         <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -13247,10 +13247,10 @@
         <v>2</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
@@ -13298,10 +13298,10 @@
         <v>2</v>
       </c>
       <c r="AW66" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX66" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY66" s="20" t="n">
         <v>0</v>
@@ -13392,10 +13392,10 @@
         <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -13443,10 +13443,10 @@
         <v>2</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH67" t="n">
         <v>0</v>
@@ -13494,10 +13494,10 @@
         <v>2</v>
       </c>
       <c r="AW67" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX67" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY67" s="20" t="n">
         <v>0</v>
@@ -13588,10 +13588,10 @@
         <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -13639,10 +13639,10 @@
         <v>2</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH68" t="n">
         <v>0</v>
@@ -13690,10 +13690,10 @@
         <v>2</v>
       </c>
       <c r="AW68" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX68" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY68" s="20" t="n">
         <v>0</v>
@@ -13784,10 +13784,10 @@
         <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -13835,10 +13835,10 @@
         <v>2</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH69" t="n">
         <v>0</v>
@@ -13886,10 +13886,10 @@
         <v>2</v>
       </c>
       <c r="AW69" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX69" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY69" s="20" t="n">
         <v>0</v>
@@ -13980,10 +13980,10 @@
         <v>2</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2.514532311485328</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -14031,10 +14031,10 @@
         <v>2</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>2.514532311485328</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
@@ -14082,10 +14082,10 @@
         <v>2</v>
       </c>
       <c r="AW70" s="20" t="n">
-        <v>0</v>
+        <v>2.514532311485328</v>
       </c>
       <c r="AX70" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY70" s="20" t="n">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -14223,10 +14223,10 @@
         <v>2</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH71" t="n">
         <v>0</v>
@@ -14274,10 +14274,10 @@
         <v>2</v>
       </c>
       <c r="AW71" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX71" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY71" s="20" t="n">
         <v>0</v>
@@ -14368,10 +14368,10 @@
         <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -14419,10 +14419,10 @@
         <v>2</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH72" t="n">
         <v>0</v>
@@ -14470,10 +14470,10 @@
         <v>2</v>
       </c>
       <c r="AW72" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX72" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY72" s="20" t="n">
         <v>0</v>
@@ -14564,10 +14564,10 @@
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -14615,10 +14615,10 @@
         <v>2</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH73" t="n">
         <v>0</v>
@@ -14666,10 +14666,10 @@
         <v>2</v>
       </c>
       <c r="AW73" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX73" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY73" s="20" t="n">
         <v>0</v>
@@ -14760,10 +14760,10 @@
         <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -14811,10 +14811,10 @@
         <v>2</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH74" t="n">
         <v>0</v>
@@ -14862,10 +14862,10 @@
         <v>2</v>
       </c>
       <c r="AW74" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX74" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY74" s="20" t="n">
         <v>0</v>
@@ -14956,10 +14956,10 @@
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -15007,10 +15007,10 @@
         <v>1</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH75" t="n">
         <v>0</v>
@@ -15058,10 +15058,10 @@
         <v>1</v>
       </c>
       <c r="AW75" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX75" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY75" s="20" t="n">
         <v>0</v>
@@ -15152,10 +15152,10 @@
         <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -15203,10 +15203,10 @@
         <v>2</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH76" t="n">
         <v>0</v>
@@ -15254,10 +15254,10 @@
         <v>2</v>
       </c>
       <c r="AW76" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX76" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY76" s="20" t="n">
         <v>0</v>
@@ -15348,10 +15348,10 @@
         <v>2</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -15399,10 +15399,10 @@
         <v>2</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH77" t="n">
         <v>0</v>
@@ -15450,10 +15450,10 @@
         <v>2</v>
       </c>
       <c r="AW77" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX77" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY77" s="20" t="n">
         <v>0</v>
@@ -15544,10 +15544,10 @@
         <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -15595,10 +15595,10 @@
         <v>2</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH78" t="n">
         <v>0</v>
@@ -15646,10 +15646,10 @@
         <v>2</v>
       </c>
       <c r="AW78" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX78" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY78" s="20" t="n">
         <v>0</v>
@@ -15740,10 +15740,10 @@
         <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -15791,10 +15791,10 @@
         <v>2</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH79" t="n">
         <v>0</v>
@@ -15842,10 +15842,10 @@
         <v>2</v>
       </c>
       <c r="AW79" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX79" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY79" s="20" t="n">
         <v>0</v>
@@ -15936,10 +15936,10 @@
         <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -15987,10 +15987,10 @@
         <v>2</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH80" t="n">
         <v>0</v>
@@ -16038,10 +16038,10 @@
         <v>2</v>
       </c>
       <c r="AW80" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX80" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY80" s="20" t="n">
         <v>0</v>
@@ -16137,10 +16137,10 @@
         <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -16188,10 +16188,10 @@
         <v>2</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH81" t="n">
         <v>0</v>
@@ -16239,10 +16239,10 @@
         <v>2</v>
       </c>
       <c r="AW81" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX81" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY81" s="20" t="n">
         <v>0</v>
@@ -16333,10 +16333,10 @@
         <v>2</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -16384,10 +16384,10 @@
         <v>2</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH82" t="n">
         <v>0</v>
@@ -16435,10 +16435,10 @@
         <v>2</v>
       </c>
       <c r="AW82" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX82" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY82" s="20" t="n">
         <v>0</v>
@@ -16529,10 +16529,10 @@
         <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -16580,10 +16580,10 @@
         <v>2</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH83" t="n">
         <v>0</v>
@@ -16631,10 +16631,10 @@
         <v>2</v>
       </c>
       <c r="AW83" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX83" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY83" s="20" t="n">
         <v>0</v>
@@ -16725,10 +16725,10 @@
         <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -16776,10 +16776,10 @@
         <v>2</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH84" t="n">
         <v>0</v>
@@ -16827,10 +16827,10 @@
         <v>2</v>
       </c>
       <c r="AW84" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX84" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY84" s="20" t="n">
         <v>0</v>
@@ -16921,10 +16921,10 @@
         <v>2</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -16972,10 +16972,10 @@
         <v>2</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH85" t="n">
         <v>0</v>
@@ -17023,10 +17023,10 @@
         <v>2</v>
       </c>
       <c r="AW85" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX85" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY85" s="20" t="n">
         <v>0</v>
@@ -17113,10 +17113,10 @@
         <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -17164,10 +17164,10 @@
         <v>1</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH86" t="n">
         <v>0</v>
@@ -17215,10 +17215,10 @@
         <v>1</v>
       </c>
       <c r="AW86" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX86" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY86" s="20" t="n">
         <v>0</v>
@@ -17309,10 +17309,10 @@
         <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -17360,10 +17360,10 @@
         <v>2</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH87" t="n">
         <v>0</v>
@@ -17411,10 +17411,10 @@
         <v>2</v>
       </c>
       <c r="AW87" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX87" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY87" s="20" t="n">
         <v>0</v>
@@ -17500,10 +17500,10 @@
         <v>2</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -17551,10 +17551,10 @@
         <v>2</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH88" t="n">
         <v>0</v>
@@ -17602,10 +17602,10 @@
         <v>2</v>
       </c>
       <c r="AW88" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX88" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY88" s="20" t="n">
         <v>0</v>
@@ -17696,10 +17696,10 @@
         <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -17747,10 +17747,10 @@
         <v>1</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH89" t="n">
         <v>0</v>
@@ -17798,10 +17798,10 @@
         <v>1</v>
       </c>
       <c r="AW89" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX89" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY89" s="20" t="n">
         <v>0</v>
@@ -17892,10 +17892,10 @@
         <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -17943,10 +17943,10 @@
         <v>2</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH90" t="n">
         <v>0</v>
@@ -17994,10 +17994,10 @@
         <v>2</v>
       </c>
       <c r="AW90" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX90" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY90" s="20" t="n">
         <v>0</v>
@@ -18088,10 +18088,10 @@
         <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -18139,10 +18139,10 @@
         <v>2</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH91" t="n">
         <v>0</v>
@@ -18190,10 +18190,10 @@
         <v>2</v>
       </c>
       <c r="AW91" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX91" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY91" s="20" t="n">
         <v>0</v>
@@ -18279,10 +18279,10 @@
         <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -18330,10 +18330,10 @@
         <v>2</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH92" t="n">
         <v>0</v>
@@ -18381,10 +18381,10 @@
         <v>2</v>
       </c>
       <c r="AW92" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX92" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY92" s="20" t="n">
         <v>0</v>
@@ -18475,10 +18475,10 @@
         <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -18526,10 +18526,10 @@
         <v>2</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH93" t="n">
         <v>0</v>
@@ -18577,10 +18577,10 @@
         <v>2</v>
       </c>
       <c r="AW93" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX93" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY93" s="20" t="n">
         <v>0</v>
@@ -18671,10 +18671,10 @@
         <v>2</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -18722,10 +18722,10 @@
         <v>2</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH94" t="n">
         <v>0</v>
@@ -18773,10 +18773,10 @@
         <v>2</v>
       </c>
       <c r="AW94" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX94" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY94" s="20" t="n">
         <v>0</v>
@@ -18867,10 +18867,10 @@
         <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -18918,10 +18918,10 @@
         <v>2</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH95" t="n">
         <v>0</v>
@@ -18969,10 +18969,10 @@
         <v>2</v>
       </c>
       <c r="AW95" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX95" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY95" s="20" t="n">
         <v>0</v>
@@ -19063,10 +19063,10 @@
         <v>2</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -19114,10 +19114,10 @@
         <v>2</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH96" t="n">
         <v>0</v>
@@ -19165,10 +19165,10 @@
         <v>2</v>
       </c>
       <c r="AW96" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX96" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY96" s="20" t="n">
         <v>0</v>
@@ -19254,10 +19254,10 @@
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -19305,10 +19305,10 @@
         <v>1</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH97" t="n">
         <v>0</v>
@@ -19356,10 +19356,10 @@
         <v>1</v>
       </c>
       <c r="AW97" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX97" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY97" s="20" t="n">
         <v>0</v>
@@ -19450,10 +19450,10 @@
         <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -19501,10 +19501,10 @@
         <v>2</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH98" t="n">
         <v>0</v>
@@ -19552,10 +19552,10 @@
         <v>2</v>
       </c>
       <c r="AW98" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX98" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY98" s="20" t="n">
         <v>0</v>
@@ -19646,10 +19646,10 @@
         <v>2</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -19697,10 +19697,10 @@
         <v>2</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH99" t="n">
         <v>0</v>
@@ -19748,10 +19748,10 @@
         <v>2</v>
       </c>
       <c r="AW99" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX99" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY99" s="20" t="n">
         <v>0</v>
@@ -19842,10 +19842,10 @@
         <v>2</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -19893,10 +19893,10 @@
         <v>2</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH100" t="n">
         <v>0</v>
@@ -19944,10 +19944,10 @@
         <v>2</v>
       </c>
       <c r="AW100" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX100" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY100" s="20" t="n">
         <v>0</v>
@@ -20038,10 +20038,10 @@
         <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -20089,10 +20089,10 @@
         <v>2</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH101" t="n">
         <v>0</v>
@@ -20140,10 +20140,10 @@
         <v>2</v>
       </c>
       <c r="AW101" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX101" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY101" s="20" t="n">
         <v>0</v>
@@ -20234,10 +20234,10 @@
         <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -20285,10 +20285,10 @@
         <v>2</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH102" t="n">
         <v>0</v>
@@ -20336,10 +20336,10 @@
         <v>2</v>
       </c>
       <c r="AW102" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX102" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY102" s="20" t="n">
         <v>0</v>
@@ -20430,10 +20430,10 @@
         <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -20481,10 +20481,10 @@
         <v>2</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH103" t="n">
         <v>0</v>
@@ -20532,10 +20532,10 @@
         <v>2</v>
       </c>
       <c r="AW103" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX103" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY103" s="20" t="n">
         <v>0</v>
@@ -20626,10 +20626,10 @@
         <v>2</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -20677,10 +20677,10 @@
         <v>2</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH104" t="n">
         <v>0</v>
@@ -20728,10 +20728,10 @@
         <v>2</v>
       </c>
       <c r="AW104" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX104" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY104" s="20" t="n">
         <v>0</v>
@@ -20822,10 +20822,10 @@
         <v>2</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -20873,10 +20873,10 @@
         <v>2</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH105" t="n">
         <v>0</v>
@@ -20924,10 +20924,10 @@
         <v>2</v>
       </c>
       <c r="AW105" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX105" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY105" s="20" t="n">
         <v>0</v>
@@ -21023,10 +21023,10 @@
         <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>2.004274446894991</v>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>2.39674890535367</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -21074,10 +21074,10 @@
         <v>2</v>
       </c>
       <c r="AF106" t="n">
-        <v>0</v>
+        <v>2.004274446894991</v>
       </c>
       <c r="AG106" t="n">
-        <v>0</v>
+        <v>2.39674890535367</v>
       </c>
       <c r="AH106" t="n">
         <v>0</v>
@@ -21125,10 +21125,10 @@
         <v>2</v>
       </c>
       <c r="AW106" s="20" t="n">
-        <v>0</v>
+        <v>2.004274446894991</v>
       </c>
       <c r="AX106" s="20" t="n">
-        <v>0</v>
+        <v>2.39674890535367</v>
       </c>
       <c r="AY106" s="20" t="n">
         <v>0</v>
@@ -21219,10 +21219,10 @@
         <v>2</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -21270,10 +21270,10 @@
         <v>2</v>
       </c>
       <c r="AF107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH107" t="n">
         <v>0</v>
@@ -21321,10 +21321,10 @@
         <v>2</v>
       </c>
       <c r="AW107" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX107" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY107" s="20" t="n">
         <v>0</v>
@@ -21420,10 +21420,10 @@
         <v>2</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -21471,10 +21471,10 @@
         <v>2</v>
       </c>
       <c r="AF108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH108" t="n">
         <v>0</v>
@@ -21522,10 +21522,10 @@
         <v>2</v>
       </c>
       <c r="AW108" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX108" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY108" s="20" t="n">
         <v>0</v>
@@ -21621,10 +21621,10 @@
         <v>2</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -21672,10 +21672,10 @@
         <v>2</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH109" t="n">
         <v>0</v>
@@ -21723,10 +21723,10 @@
         <v>2</v>
       </c>
       <c r="AW109" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX109" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY109" s="20" t="n">
         <v>0</v>
@@ -21817,10 +21817,10 @@
         <v>2</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -21868,10 +21868,10 @@
         <v>2</v>
       </c>
       <c r="AF110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH110" t="n">
         <v>0</v>
@@ -21919,10 +21919,10 @@
         <v>2</v>
       </c>
       <c r="AW110" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX110" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY110" s="20" t="n">
         <v>0</v>
@@ -22013,10 +22013,10 @@
         <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -22064,10 +22064,10 @@
         <v>1</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH111" t="n">
         <v>0</v>
@@ -22115,10 +22115,10 @@
         <v>1</v>
       </c>
       <c r="AW111" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX111" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY111" s="20" t="n">
         <v>0</v>
@@ -22209,10 +22209,10 @@
         <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
@@ -22260,10 +22260,10 @@
         <v>1</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH112" t="n">
         <v>0</v>
@@ -22311,10 +22311,10 @@
         <v>1</v>
       </c>
       <c r="AW112" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX112" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY112" s="20" t="n">
         <v>0</v>
@@ -22405,10 +22405,10 @@
         <v>2</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>2</v>
       </c>
       <c r="AF113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH113" t="n">
         <v>0</v>
@@ -22507,10 +22507,10 @@
         <v>2</v>
       </c>
       <c r="AW113" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX113" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY113" s="20" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -22652,10 +22652,10 @@
         <v>1</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH114" t="n">
         <v>0</v>
@@ -22703,10 +22703,10 @@
         <v>1</v>
       </c>
       <c r="AW114" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX114" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY114" s="20" t="n">
         <v>0</v>
@@ -22797,10 +22797,10 @@
         <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -22848,10 +22848,10 @@
         <v>2</v>
       </c>
       <c r="AF115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH115" t="n">
         <v>0</v>
@@ -22899,10 +22899,10 @@
         <v>2</v>
       </c>
       <c r="AW115" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX115" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY115" s="20" t="n">
         <v>0</v>
@@ -22988,10 +22988,10 @@
         <v>2</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -23039,10 +23039,10 @@
         <v>2</v>
       </c>
       <c r="AF116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH116" t="n">
         <v>0</v>
@@ -23090,10 +23090,10 @@
         <v>2</v>
       </c>
       <c r="AW116" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX116" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY116" s="20" t="n">
         <v>0</v>
@@ -23184,10 +23184,10 @@
         <v>2</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -23235,10 +23235,10 @@
         <v>2</v>
       </c>
       <c r="AF117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH117" t="n">
         <v>0</v>
@@ -23286,10 +23286,10 @@
         <v>2</v>
       </c>
       <c r="AW117" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX117" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY117" s="20" t="n">
         <v>0</v>
@@ -23380,10 +23380,10 @@
         <v>2</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>2</v>
       </c>
       <c r="AF118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH118" t="n">
         <v>0</v>
@@ -23482,10 +23482,10 @@
         <v>2</v>
       </c>
       <c r="AW118" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX118" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY118" s="20" t="n">
         <v>0</v>
@@ -23576,10 +23576,10 @@
         <v>2</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>2</v>
       </c>
       <c r="AF119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH119" t="n">
         <v>0</v>
@@ -23678,10 +23678,10 @@
         <v>2</v>
       </c>
       <c r="AW119" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX119" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY119" s="20" t="n">
         <v>0</v>
@@ -23766,10 +23766,10 @@
         <v>2</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
@@ -23817,10 +23817,10 @@
         <v>2</v>
       </c>
       <c r="AF120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH120" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>2</v>
       </c>
       <c r="AW120" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX120" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY120" s="20" t="n">
         <v>0</v>
@@ -23957,10 +23957,10 @@
         <v>2</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>2.923243834721834</v>
       </c>
       <c r="P121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
@@ -24008,10 +24008,10 @@
         <v>2</v>
       </c>
       <c r="AF121" t="n">
-        <v>1</v>
+        <v>2.923243834721834</v>
       </c>
       <c r="AG121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH121" t="n">
         <v>0</v>
@@ -24059,10 +24059,10 @@
         <v>2</v>
       </c>
       <c r="AW121" s="20" t="n">
-        <v>1</v>
+        <v>2.923243834721834</v>
       </c>
       <c r="AX121" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY121" s="20" t="n">
         <v>0</v>
@@ -24148,10 +24148,10 @@
         <v>2</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -24199,10 +24199,10 @@
         <v>2</v>
       </c>
       <c r="AF122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH122" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>2</v>
       </c>
       <c r="AW122" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX122" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY122" s="20" t="n">
         <v>0</v>
@@ -24349,10 +24349,10 @@
         <v>2</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>2.444558704717686</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -24400,10 +24400,10 @@
         <v>2</v>
       </c>
       <c r="AF123" t="n">
-        <v>0</v>
+        <v>2.444558704717686</v>
       </c>
       <c r="AG123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH123" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>2</v>
       </c>
       <c r="AW123" s="20" t="n">
-        <v>0</v>
+        <v>2.444558704717686</v>
       </c>
       <c r="AX123" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY123" s="20" t="n">
         <v>0</v>
@@ -24540,10 +24540,10 @@
         <v>2</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
@@ -24591,10 +24591,10 @@
         <v>2</v>
       </c>
       <c r="AF124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH124" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         <v>2</v>
       </c>
       <c r="AW124" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX124" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY124" s="20" t="n">
         <v>0</v>
@@ -24741,10 +24741,10 @@
         <v>2</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -24792,10 +24792,10 @@
         <v>2</v>
       </c>
       <c r="AF125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH125" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>2</v>
       </c>
       <c r="AW125" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX125" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY125" s="20" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>2</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -24983,10 +24983,10 @@
         <v>2</v>
       </c>
       <c r="AF126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH126" t="n">
         <v>0</v>
@@ -25034,10 +25034,10 @@
         <v>2</v>
       </c>
       <c r="AW126" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX126" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY126" s="20" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>2</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
@@ -25174,10 +25174,10 @@
         <v>2</v>
       </c>
       <c r="AF127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH127" t="n">
         <v>0</v>
@@ -25225,10 +25225,10 @@
         <v>2</v>
       </c>
       <c r="AW127" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX127" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY127" s="20" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>2</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>2</v>
       </c>
       <c r="AF128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH128" t="n">
         <v>0</v>
@@ -25426,10 +25426,10 @@
         <v>2</v>
       </c>
       <c r="AW128" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX128" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY128" s="20" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>2</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>2</v>
       </c>
       <c r="AF129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH129" t="n">
         <v>0</v>
@@ -25617,10 +25617,10 @@
         <v>2</v>
       </c>
       <c r="AW129" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX129" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY129" s="20" t="n">
         <v>0</v>
@@ -25706,10 +25706,10 @@
         <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>2</v>
       </c>
       <c r="AF130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH130" t="n">
         <v>0</v>
@@ -25808,10 +25808,10 @@
         <v>2</v>
       </c>
       <c r="AW130" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX130" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY130" s="20" t="n">
         <v>0</v>
@@ -25897,10 +25897,10 @@
         <v>2</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -25948,10 +25948,10 @@
         <v>2</v>
       </c>
       <c r="AF131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH131" t="n">
         <v>0</v>
@@ -25999,10 +25999,10 @@
         <v>2</v>
       </c>
       <c r="AW131" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX131" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY131" s="20" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>2.006420445866059</v>
       </c>
       <c r="O132" t="n">
-        <v>1</v>
+        <v>2.923243834721834</v>
       </c>
       <c r="P132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -26139,10 +26139,10 @@
         <v>2.006420445866059</v>
       </c>
       <c r="AF132" t="n">
-        <v>0</v>
+        <v>2.923243834721834</v>
       </c>
       <c r="AG132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH132" t="n">
         <v>0</v>
@@ -26190,10 +26190,10 @@
         <v>2.006420445866059</v>
       </c>
       <c r="AW132" s="20" t="n">
-        <v>1</v>
+        <v>2.923243834721834</v>
       </c>
       <c r="AX132" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY132" s="20" t="n">
         <v>0</v>
@@ -26276,10 +26276,10 @@
         <v>2</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
@@ -26327,10 +26327,10 @@
         <v>2</v>
       </c>
       <c r="AF133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH133" t="n">
         <v>0</v>
@@ -26378,10 +26378,10 @@
         <v>2</v>
       </c>
       <c r="AW133" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX133" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY133" s="20" t="n">
         <v>0</v>
@@ -26462,10 +26462,10 @@
         <v>2.706795050437817</v>
       </c>
       <c r="O134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
@@ -26513,10 +26513,10 @@
         <v>2.706795050437817</v>
       </c>
       <c r="AF134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH134" t="n">
         <v>0</v>
@@ -26564,10 +26564,10 @@
         <v>2.706795050437817</v>
       </c>
       <c r="AW134" s="20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX134" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY134" s="20" t="n">
         <v>0</v>
@@ -26658,10 +26658,10 @@
         <v>2</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -26709,10 +26709,10 @@
         <v>2</v>
       </c>
       <c r="AF135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH135" t="n">
         <v>0</v>
@@ -26760,10 +26760,10 @@
         <v>2</v>
       </c>
       <c r="AW135" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX135" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY135" s="20" t="n">
         <v>0</v>
@@ -26854,10 +26854,10 @@
         <v>2</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -26905,10 +26905,10 @@
         <v>2</v>
       </c>
       <c r="AF136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH136" t="n">
         <v>1</v>
@@ -26956,10 +26956,10 @@
         <v>2</v>
       </c>
       <c r="AW136" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX136" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY136" s="20" t="n">
         <v>1</v>
@@ -27050,10 +27050,10 @@
         <v>2</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
@@ -27101,10 +27101,10 @@
         <v>2</v>
       </c>
       <c r="AF137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH137" t="n">
         <v>0</v>
@@ -27152,10 +27152,10 @@
         <v>2</v>
       </c>
       <c r="AW137" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX137" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY137" s="20" t="n">
         <v>0</v>
@@ -27246,10 +27246,10 @@
         <v>2</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -27297,10 +27297,10 @@
         <v>2</v>
       </c>
       <c r="AF138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH138" t="n">
         <v>0</v>
@@ -27348,10 +27348,10 @@
         <v>2</v>
       </c>
       <c r="AW138" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX138" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY138" s="20" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>2</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -27483,10 +27483,10 @@
         <v>2</v>
       </c>
       <c r="AF139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH139" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         <v>2</v>
       </c>
       <c r="AW139" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX139" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY139" s="20" t="n">
         <v>0</v>
@@ -27623,10 +27623,10 @@
         <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
@@ -27674,10 +27674,10 @@
         <v>2</v>
       </c>
       <c r="AF140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH140" t="n">
         <v>0</v>
@@ -27725,10 +27725,10 @@
         <v>2</v>
       </c>
       <c r="AW140" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX140" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY140" s="20" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>2</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>2</v>
       </c>
       <c r="AF141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH141" t="n">
         <v>0</v>
@@ -27921,10 +27921,10 @@
         <v>2</v>
       </c>
       <c r="AW141" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX141" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY141" s="20" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>2</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>2</v>
       </c>
       <c r="AF142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH142" t="n">
         <v>0</v>
@@ -28116,10 +28116,10 @@
         <v>2</v>
       </c>
       <c r="AW142" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX142" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY142" s="20" t="n">
         <v>0</v>
@@ -28204,10 +28204,10 @@
         <v>2</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -28255,10 +28255,10 @@
         <v>2</v>
       </c>
       <c r="AF143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH143" t="n">
         <v>1</v>
@@ -28306,10 +28306,10 @@
         <v>2</v>
       </c>
       <c r="AW143" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX143" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY143" s="20" t="n">
         <v>1</v>
@@ -28389,10 +28389,10 @@
         <v>2</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -28440,10 +28440,10 @@
         <v>2</v>
       </c>
       <c r="AF144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH144" t="n">
         <v>0</v>
@@ -28491,10 +28491,10 @@
         <v>2</v>
       </c>
       <c r="AW144" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX144" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY144" s="20" t="n">
         <v>0</v>
@@ -28574,10 +28574,10 @@
         <v>2</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -28625,10 +28625,10 @@
         <v>2</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH145" t="n">
         <v>0</v>
@@ -28676,10 +28676,10 @@
         <v>2</v>
       </c>
       <c r="AW145" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX145" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY145" s="20" t="n">
         <v>0</v>
@@ -28759,10 +28759,10 @@
         <v>2</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>2</v>
       </c>
       <c r="AF146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH146" t="n">
         <v>0</v>
@@ -28861,10 +28861,10 @@
         <v>2</v>
       </c>
       <c r="AW146" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX146" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY146" s="20" t="n">
         <v>0</v>
@@ -28945,10 +28945,10 @@
         <v>2</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
@@ -28996,10 +28996,10 @@
         <v>2</v>
       </c>
       <c r="AF147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH147" t="n">
         <v>0</v>
@@ -29047,10 +29047,10 @@
         <v>2</v>
       </c>
       <c r="AW147" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX147" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY147" s="20" t="n">
         <v>0</v>
@@ -29135,10 +29135,10 @@
         <v>2</v>
       </c>
       <c r="O148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
@@ -29186,10 +29186,10 @@
         <v>2</v>
       </c>
       <c r="AF148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH148" t="n">
         <v>0</v>
@@ -29237,10 +29237,10 @@
         <v>2</v>
       </c>
       <c r="AW148" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX148" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY148" s="20" t="n">
         <v>0</v>
@@ -29320,10 +29320,10 @@
         <v>2</v>
       </c>
       <c r="O149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q149" t="n">
         <v>0</v>
@@ -29371,10 +29371,10 @@
         <v>2</v>
       </c>
       <c r="AF149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH149" t="n">
         <v>1</v>
@@ -29422,10 +29422,10 @@
         <v>2</v>
       </c>
       <c r="AW149" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX149" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY149" s="20" t="n">
         <v>1</v>
@@ -29508,10 +29508,10 @@
         <v>2</v>
       </c>
       <c r="O150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q150" t="n">
         <v>0</v>
@@ -29559,10 +29559,10 @@
         <v>2</v>
       </c>
       <c r="AF150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH150" t="n">
         <v>0</v>
@@ -29610,10 +29610,10 @@
         <v>2</v>
       </c>
       <c r="AW150" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX150" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY150" s="20" t="n">
         <v>0</v>
@@ -29693,10 +29693,10 @@
         <v>2</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P151" t="n">
-        <v>0</v>
+        <v>2.069830006587737</v>
       </c>
       <c r="Q151" t="n">
         <v>0</v>
@@ -29744,10 +29744,10 @@
         <v>2</v>
       </c>
       <c r="AF151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG151" t="n">
-        <v>0</v>
+        <v>2.069830006587737</v>
       </c>
       <c r="AH151" t="n">
         <v>0</v>
@@ -29795,10 +29795,10 @@
         <v>2</v>
       </c>
       <c r="AW151" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX151" s="20" t="n">
-        <v>0</v>
+        <v>2.069830006587737</v>
       </c>
       <c r="AY151" s="20" t="n">
         <v>0</v>
@@ -29883,10 +29883,10 @@
         <v>2</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
@@ -29934,10 +29934,10 @@
         <v>2</v>
       </c>
       <c r="AF152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH152" t="n">
         <v>0</v>
@@ -29985,10 +29985,10 @@
         <v>2</v>
       </c>
       <c r="AW152" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX152" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY152" s="20" t="n">
         <v>0</v>
@@ -30073,10 +30073,10 @@
         <v>2</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
@@ -30124,10 +30124,10 @@
         <v>2</v>
       </c>
       <c r="AF153" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG153" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH153" s="28" t="n">
         <v>0</v>
@@ -30175,10 +30175,10 @@
         <v>2</v>
       </c>
       <c r="AW153" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX153" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY153" s="20" t="n">
         <v>0</v>
@@ -30264,10 +30264,10 @@
         <v>2</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
@@ -30315,10 +30315,10 @@
         <v>2</v>
       </c>
       <c r="AF154" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG154" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH154" s="28" t="n">
         <v>0</v>
@@ -30366,10 +30366,10 @@
         <v>2</v>
       </c>
       <c r="AW154" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX154" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY154" s="20" t="n">
         <v>0</v>
@@ -30455,10 +30455,10 @@
         <v>2</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q155" t="n">
         <v>0</v>
@@ -30506,10 +30506,10 @@
         <v>2</v>
       </c>
       <c r="AF155" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG155" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH155" s="28" t="n">
         <v>1</v>
@@ -30557,10 +30557,10 @@
         <v>2</v>
       </c>
       <c r="AW155" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX155" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY155" s="20" t="n">
         <v>0</v>
@@ -30646,10 +30646,10 @@
         <v>2</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
@@ -30697,10 +30697,10 @@
         <v>2</v>
       </c>
       <c r="AF156" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG156" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH156" s="28" t="n">
         <v>0</v>
@@ -30748,10 +30748,10 @@
         <v>2</v>
       </c>
       <c r="AW156" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX156" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY156" s="20" t="n">
         <v>0</v>
@@ -30837,10 +30837,10 @@
         <v>2</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
@@ -30888,10 +30888,10 @@
         <v>2</v>
       </c>
       <c r="AF157" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG157" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH157" s="28" t="n">
         <v>1</v>
@@ -30939,10 +30939,10 @@
         <v>2</v>
       </c>
       <c r="AW157" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX157" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY157" s="20" t="n">
         <v>1</v>
@@ -31028,10 +31028,10 @@
         <v>2</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
@@ -31079,10 +31079,10 @@
         <v>2</v>
       </c>
       <c r="AF158" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG158" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH158" s="28" t="n">
         <v>1</v>
@@ -31130,10 +31130,10 @@
         <v>2</v>
       </c>
       <c r="AW158" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX158" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY158" s="20" t="n">
         <v>1</v>
@@ -31219,10 +31219,10 @@
         <v>2</v>
       </c>
       <c r="O159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q159" t="n">
         <v>0</v>
@@ -31270,10 +31270,10 @@
         <v>2</v>
       </c>
       <c r="AF159" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG159" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH159" s="28" t="n">
         <v>1</v>
@@ -31321,10 +31321,10 @@
         <v>2</v>
       </c>
       <c r="AW159" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX159" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY159" s="20" t="n">
         <v>0</v>
@@ -31410,10 +31410,10 @@
         <v>2</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q160" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>2</v>
       </c>
       <c r="AF160" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG160" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH160" s="28" t="n">
         <v>1</v>
@@ -31512,10 +31512,10 @@
         <v>2</v>
       </c>
       <c r="AW160" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX160" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY160" s="20" t="n">
         <v>1</v>
@@ -31596,10 +31596,10 @@
         <v>2</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q161" t="n">
         <v>0</v>
@@ -31647,10 +31647,10 @@
         <v>2</v>
       </c>
       <c r="AF161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH161" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>2</v>
       </c>
       <c r="AW161" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX161" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY161" s="20" t="n">
         <v>0</v>
@@ -31782,10 +31782,10 @@
         <v>2</v>
       </c>
       <c r="O162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
@@ -31833,10 +31833,10 @@
         <v>2</v>
       </c>
       <c r="AF162" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG162" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH162" s="28" t="n">
         <v>0</v>
@@ -31884,10 +31884,10 @@
         <v>2</v>
       </c>
       <c r="AW162" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX162" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY162" s="20" t="n">
         <v>0</v>
@@ -31973,10 +31973,10 @@
         <v>2</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q163" t="n">
         <v>0</v>
@@ -32024,10 +32024,10 @@
         <v>2</v>
       </c>
       <c r="AF163" s="28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG163" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH163" s="28" t="n">
         <v>1</v>
@@ -32075,10 +32075,10 @@
         <v>2</v>
       </c>
       <c r="AW163" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX163" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY163" s="20" t="n">
         <v>1</v>
@@ -32164,10 +32164,10 @@
         <v>2</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q164" t="n">
         <v>0</v>
@@ -32215,10 +32215,10 @@
         <v>2</v>
       </c>
       <c r="AF164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH164" t="n">
         <v>0</v>
@@ -32266,10 +32266,10 @@
         <v>2</v>
       </c>
       <c r="AW164" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX164" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY164" s="20" t="n">
         <v>0</v>
@@ -32350,10 +32350,10 @@
         <v>2</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q165" t="n">
         <v>0</v>
@@ -32401,10 +32401,10 @@
         <v>2</v>
       </c>
       <c r="AF165" s="28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG165" s="28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH165" s="28" t="n">
         <v>0</v>
@@ -32452,10 +32452,10 @@
         <v>2</v>
       </c>
       <c r="AW165" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX165" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY165" s="20" t="n">
         <v>0</v>
@@ -32541,10 +32541,10 @@
         <v>2</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
@@ -32592,10 +32592,10 @@
         <v>2</v>
       </c>
       <c r="AF166" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG166" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH166" s="28" t="n">
         <v>0</v>
@@ -32643,10 +32643,10 @@
         <v>2</v>
       </c>
       <c r="AW166" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX166" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY166" s="20" t="n">
         <v>0</v>
@@ -32732,10 +32732,10 @@
         <v>2</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q167" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>2</v>
       </c>
       <c r="AF167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG167" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH167" s="28" t="n">
         <v>0</v>
@@ -32834,10 +32834,10 @@
         <v>2</v>
       </c>
       <c r="AW167" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX167" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY167" s="20" t="n">
         <v>0</v>
@@ -32923,10 +32923,10 @@
         <v>2</v>
       </c>
       <c r="O168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q168" t="n">
         <v>0</v>
@@ -32974,10 +32974,10 @@
         <v>2</v>
       </c>
       <c r="AF168" s="28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH168" t="n">
         <v>0</v>
@@ -33025,10 +33025,10 @@
         <v>2</v>
       </c>
       <c r="AW168" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX168" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY168" s="20" t="n">
         <v>0</v>
@@ -33113,10 +33113,10 @@
         <v>2</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q169" t="n">
         <v>0</v>
@@ -33164,10 +33164,10 @@
         <v>2</v>
       </c>
       <c r="AF169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH169" t="n">
         <v>0</v>
@@ -33215,10 +33215,10 @@
         <v>2</v>
       </c>
       <c r="AW169" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX169" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY169" s="20" t="n">
         <v>0</v>
@@ -33304,10 +33304,10 @@
         <v>2</v>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
@@ -33355,10 +33355,10 @@
         <v>2</v>
       </c>
       <c r="AF170" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG170" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH170" s="28" t="n">
         <v>1</v>
@@ -33406,10 +33406,10 @@
         <v>2</v>
       </c>
       <c r="AW170" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX170" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY170" s="20" t="n">
         <v>1</v>
@@ -33495,10 +33495,10 @@
         <v>2</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q171" t="n">
         <v>0</v>
@@ -33546,10 +33546,10 @@
         <v>2</v>
       </c>
       <c r="AF171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH171" t="n">
         <v>0</v>
@@ -33597,10 +33597,10 @@
         <v>2</v>
       </c>
       <c r="AW171" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX171" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY171" s="20" t="n">
         <v>0</v>
@@ -33681,10 +33681,10 @@
         <v>2</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q172" t="n">
         <v>0</v>
@@ -33732,10 +33732,10 @@
         <v>2</v>
       </c>
       <c r="AF172" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG172" s="28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH172" s="28" t="n">
         <v>0</v>
@@ -33783,10 +33783,10 @@
         <v>2</v>
       </c>
       <c r="AW172" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX172" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY172" s="20" t="n">
         <v>0</v>
@@ -33872,10 +33872,10 @@
         <v>2</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q173" t="n">
         <v>0</v>
@@ -33923,10 +33923,10 @@
         <v>2</v>
       </c>
       <c r="AF173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH173" t="n">
         <v>0</v>
@@ -33974,10 +33974,10 @@
         <v>2</v>
       </c>
       <c r="AW173" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX173" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY173" s="20" t="n">
         <v>0</v>
@@ -34058,10 +34058,10 @@
         <v>2</v>
       </c>
       <c r="O174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q174" t="n">
         <v>0</v>
@@ -34109,10 +34109,10 @@
         <v>2</v>
       </c>
       <c r="AF174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH174" t="n">
         <v>0</v>
@@ -34160,10 +34160,10 @@
         <v>2</v>
       </c>
       <c r="AW174" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX174" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY174" s="20" t="n">
         <v>0</v>
@@ -34244,10 +34244,10 @@
         <v>2</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q175" t="n">
         <v>0</v>
@@ -34295,10 +34295,10 @@
         <v>2</v>
       </c>
       <c r="AF175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH175" t="n">
         <v>0</v>
@@ -34346,10 +34346,10 @@
         <v>2</v>
       </c>
       <c r="AW175" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX175" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY175" s="20" t="n">
         <v>0</v>
@@ -34428,10 +34428,10 @@
         <v>3</v>
       </c>
       <c r="O176" t="n">
-        <v>0</v>
+        <v>3.00040333901148</v>
       </c>
       <c r="P176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q176" t="n">
         <v>0</v>
@@ -34479,10 +34479,10 @@
         <v>3</v>
       </c>
       <c r="AF176" t="n">
-        <v>0</v>
+        <v>3.00040333901148</v>
       </c>
       <c r="AG176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH176" t="n">
         <v>0</v>
@@ -34530,10 +34530,10 @@
         <v>3</v>
       </c>
       <c r="AW176" s="20" t="n">
-        <v>0</v>
+        <v>3.00040333901148</v>
       </c>
       <c r="AX176" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY176" s="20" t="n">
         <v>0</v>
@@ -34615,10 +34615,10 @@
         <v>2</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q177" t="n">
         <v>0</v>
@@ -34666,10 +34666,10 @@
         <v>2</v>
       </c>
       <c r="AF177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH177" t="n">
         <v>0</v>
@@ -34717,10 +34717,10 @@
         <v>2</v>
       </c>
       <c r="AW177" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX177" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY177" s="20" t="n">
         <v>0</v>
@@ -34812,10 +34812,10 @@
         <v>2</v>
       </c>
       <c r="O178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q178" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>2</v>
       </c>
       <c r="AF178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH178" t="n">
         <v>1</v>
@@ -34914,10 +34914,10 @@
         <v>2</v>
       </c>
       <c r="AW178" s="20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX178" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY178" s="20" t="n">
         <v>1</v>
@@ -35014,10 +35014,10 @@
         <v>2</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q179" t="n">
         <v>0</v>
@@ -35065,10 +35065,10 @@
         <v>2</v>
       </c>
       <c r="AF179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH179" t="n">
         <v>0</v>
@@ -35116,10 +35116,10 @@
         <v>2</v>
       </c>
       <c r="AW179" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX179" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY179" s="20" t="n">
         <v>0</v>
@@ -35206,10 +35206,10 @@
         <v>2</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q180" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>2</v>
       </c>
       <c r="AF180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH180" t="n">
         <v>0</v>
@@ -35308,10 +35308,10 @@
         <v>2</v>
       </c>
       <c r="AW180" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX180" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY180" s="20" t="n">
         <v>0</v>
@@ -35398,10 +35398,10 @@
         <v>2</v>
       </c>
       <c r="O181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q181" t="n">
         <v>0</v>
@@ -35449,10 +35449,10 @@
         <v>2</v>
       </c>
       <c r="AF181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH181" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>2</v>
       </c>
       <c r="AW181" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX181" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY181" s="20" t="n">
         <v>0</v>
@@ -35590,10 +35590,10 @@
         <v>3</v>
       </c>
       <c r="O182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q182" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>3</v>
       </c>
       <c r="AF182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH182" t="n">
         <v>0</v>
@@ -35692,10 +35692,10 @@
         <v>3</v>
       </c>
       <c r="AW182" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX182" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY182" s="20" t="n">
         <v>0</v>
@@ -35782,10 +35782,10 @@
         <v>2</v>
       </c>
       <c r="O183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q183" t="n">
         <v>0</v>
@@ -35833,10 +35833,10 @@
         <v>2</v>
       </c>
       <c r="AF183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH183" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>2</v>
       </c>
       <c r="AW183" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX183" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY183" s="20" t="n">
         <v>0</v>
@@ -35979,10 +35979,10 @@
         <v>2</v>
       </c>
       <c r="O184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q184" t="n">
         <v>0</v>
@@ -36030,10 +36030,10 @@
         <v>2</v>
       </c>
       <c r="AF184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH184" t="n">
         <v>0</v>
@@ -36081,10 +36081,10 @@
         <v>2</v>
       </c>
       <c r="AW184" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX184" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY184" s="20" t="n">
         <v>0</v>
@@ -36171,10 +36171,10 @@
         <v>2</v>
       </c>
       <c r="O185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q185" t="n">
         <v>0</v>
@@ -36222,10 +36222,10 @@
         <v>2</v>
       </c>
       <c r="AF185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH185" t="n">
         <v>0</v>
@@ -36273,10 +36273,10 @@
         <v>2</v>
       </c>
       <c r="AW185" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX185" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY185" s="20" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>2</v>
       </c>
       <c r="O186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q186" t="n">
         <v>0</v>
@@ -36414,10 +36414,10 @@
         <v>2</v>
       </c>
       <c r="AF186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH186" t="n">
         <v>0</v>
@@ -36465,10 +36465,10 @@
         <v>2</v>
       </c>
       <c r="AW186" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX186" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY186" s="20" t="n">
         <v>0</v>
@@ -36560,10 +36560,10 @@
         <v>2</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q187" t="n">
         <v>0</v>
@@ -36611,10 +36611,10 @@
         <v>2</v>
       </c>
       <c r="AF187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH187" t="n">
         <v>1</v>
@@ -36662,10 +36662,10 @@
         <v>2</v>
       </c>
       <c r="AW187" s="20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX187" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY187" s="20" t="n">
         <v>1</v>
@@ -36762,10 +36762,10 @@
         <v>2</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
@@ -36813,10 +36813,10 @@
         <v>2</v>
       </c>
       <c r="AF188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH188" t="n">
         <v>0</v>
@@ -36864,10 +36864,10 @@
         <v>2</v>
       </c>
       <c r="AW188" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX188" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY188" s="20" t="n">
         <v>0</v>
@@ -36959,10 +36959,10 @@
         <v>2</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q189" t="n">
         <v>0</v>
@@ -37010,10 +37010,10 @@
         <v>2</v>
       </c>
       <c r="AF189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH189" t="n">
         <v>0</v>
@@ -37061,10 +37061,10 @@
         <v>2</v>
       </c>
       <c r="AW189" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX189" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY189" s="20" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>2</v>
       </c>
       <c r="O190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q190" t="n">
         <v>0</v>
@@ -37202,10 +37202,10 @@
         <v>2</v>
       </c>
       <c r="AF190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH190" t="n">
         <v>0</v>
@@ -37253,10 +37253,10 @@
         <v>2</v>
       </c>
       <c r="AW190" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX190" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY190" s="20" t="n">
         <v>0</v>
@@ -37343,10 +37343,10 @@
         <v>2</v>
       </c>
       <c r="O191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q191" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>2</v>
       </c>
       <c r="AF191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH191" t="n">
         <v>0</v>
@@ -37445,10 +37445,10 @@
         <v>2</v>
       </c>
       <c r="AW191" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX191" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY191" s="20" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>2</v>
       </c>
       <c r="O192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q192" t="n">
         <v>0</v>
@@ -37591,10 +37591,10 @@
         <v>2</v>
       </c>
       <c r="AF192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH192" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>2</v>
       </c>
       <c r="AW192" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX192" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY192" s="20" t="n">
         <v>0</v>
@@ -37742,10 +37742,10 @@
         <v>2</v>
       </c>
       <c r="O193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q193" t="n">
         <v>0</v>
@@ -37793,10 +37793,10 @@
         <v>2</v>
       </c>
       <c r="AF193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH193" t="n">
         <v>0</v>
@@ -37844,10 +37844,10 @@
         <v>2</v>
       </c>
       <c r="AW193" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX193" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY193" s="20" t="n">
         <v>0</v>
@@ -37934,10 +37934,10 @@
         <v>2</v>
       </c>
       <c r="O194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q194" t="n">
         <v>0</v>
@@ -37985,10 +37985,10 @@
         <v>2</v>
       </c>
       <c r="AF194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH194" t="n">
         <v>0</v>
@@ -38036,10 +38036,10 @@
         <v>2</v>
       </c>
       <c r="AW194" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX194" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY194" s="20" t="n">
         <v>0</v>
@@ -38126,10 +38126,10 @@
         <v>2</v>
       </c>
       <c r="O195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q195" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>2</v>
       </c>
       <c r="AF195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH195" t="n">
         <v>0</v>
@@ -38228,10 +38228,10 @@
         <v>2</v>
       </c>
       <c r="AW195" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX195" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY195" s="20" t="n">
         <v>0</v>
@@ -38323,10 +38323,10 @@
         <v>2</v>
       </c>
       <c r="O196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q196" t="n">
         <v>0</v>
@@ -38374,10 +38374,10 @@
         <v>2</v>
       </c>
       <c r="AF196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH196" t="n">
         <v>0</v>
@@ -38425,10 +38425,10 @@
         <v>2</v>
       </c>
       <c r="AW196" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX196" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY196" s="20" t="n">
         <v>0</v>
@@ -38520,10 +38520,10 @@
         <v>2</v>
       </c>
       <c r="O197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q197" t="n">
         <v>0</v>
@@ -38571,10 +38571,10 @@
         <v>2</v>
       </c>
       <c r="AF197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH197" t="n">
         <v>0</v>
@@ -38622,10 +38622,10 @@
         <v>2</v>
       </c>
       <c r="AW197" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX197" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY197" s="20" t="n">
         <v>0</v>
@@ -38717,10 +38717,10 @@
         <v>2</v>
       </c>
       <c r="O198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
@@ -38768,10 +38768,10 @@
         <v>2</v>
       </c>
       <c r="AF198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH198" t="n">
         <v>1</v>
@@ -38819,10 +38819,10 @@
         <v>2</v>
       </c>
       <c r="AW198" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX198" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY198" s="20" t="n">
         <v>1</v>
@@ -38919,10 +38919,10 @@
         <v>2</v>
       </c>
       <c r="O199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
@@ -38970,10 +38970,10 @@
         <v>2</v>
       </c>
       <c r="AF199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH199" t="n">
         <v>1</v>
@@ -39021,10 +39021,10 @@
         <v>2</v>
       </c>
       <c r="AW199" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX199" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY199" s="20" t="n">
         <v>1</v>
@@ -39121,10 +39121,10 @@
         <v>2</v>
       </c>
       <c r="O200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
@@ -39172,10 +39172,10 @@
         <v>2</v>
       </c>
       <c r="AF200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH200" t="n">
         <v>0</v>
@@ -39223,10 +39223,10 @@
         <v>2</v>
       </c>
       <c r="AW200" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX200" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY200" s="20" t="n">
         <v>0</v>
@@ -39318,10 +39318,10 @@
         <v>2</v>
       </c>
       <c r="O201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q201" t="n">
         <v>0</v>
@@ -39369,10 +39369,10 @@
         <v>2</v>
       </c>
       <c r="AF201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH201" t="n">
         <v>0</v>
@@ -39420,10 +39420,10 @@
         <v>2</v>
       </c>
       <c r="AW201" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX201" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY201" s="20" t="n">
         <v>0</v>
